--- a/Assets/ExcelDatas/BonusStat.xlsx
+++ b/Assets/ExcelDatas/BonusStat.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93BF197-189B-4BDE-9D05-87E19C63B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="1335" yWindow="5655" windowWidth="20595" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
-    <sheet name="BonusStat" sheetId="7" r:id="rId2"/>
+    <sheet name="BonusStatTable" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>캐릭터의 크리티컬 데미지를 강화 합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,15 +689,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.69921875" style="1"/>
-    <col min="3" max="3" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -707,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -735,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -749,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -763,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -791,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -813,24 +817,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B2916C-EE63-43E2-961A-9DDBB10CECF4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.69921875" style="3"/>
+    <col min="4" max="4" width="30.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -844,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -852,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -872,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -886,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>12006</v>
       </c>
@@ -900,7 +902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>12011</v>
       </c>
@@ -914,7 +916,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>12016</v>
       </c>
@@ -928,7 +930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>12021</v>
       </c>

--- a/Assets/ExcelDatas/BonusStat.xlsx
+++ b/Assets/ExcelDatas/BonusStat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{52553018-1C19-4E99-9B56-0F8AE93788D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F46A7D72-72C0-4008-924D-16C1432F62C7}"/>
   <bookViews>
-    <workbookView xWindow="1335" yWindow="5655" windowWidth="20595" windowHeight="11400" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="6" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>ALL:KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>캐릭터의 크리티컬 데미지를 강화 합니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -371,6 +367,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,7 +689,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="8.75" style="1"/>
     <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
@@ -697,7 +697,7 @@
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -725,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -739,7 +739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -781,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -795,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
@@ -820,10 +820,10 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
@@ -832,7 +832,7 @@
     <col min="5" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -854,13 +854,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -874,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
         <v>12001</v>
       </c>
@@ -882,13 +882,13 @@
         <v>25</v>
       </c>
       <c r="C4" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
         <v>12006</v>
       </c>
@@ -896,13 +896,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>0.1</v>
+        <v>100</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
         <v>12011</v>
       </c>
@@ -910,13 +910,13 @@
         <v>26</v>
       </c>
       <c r="C6" s="2">
-        <v>0.2</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="2">
         <v>12016</v>
       </c>
@@ -924,13 +924,13 @@
         <v>27</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="2">
         <v>12021</v>
       </c>
@@ -938,7 +938,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="2">
-        <v>0.05</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>36</v>
